--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3514346666666666</v>
+        <v>1.152264333333333</v>
       </c>
       <c r="H2">
-        <v>1.054304</v>
+        <v>3.456793</v>
       </c>
       <c r="I2">
-        <v>0.164942595720082</v>
+        <v>0.3930660006090215</v>
       </c>
       <c r="J2">
-        <v>0.1649425957200821</v>
+        <v>0.3930660006090216</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.021200333333333</v>
+        <v>1.923239</v>
       </c>
       <c r="N2">
-        <v>12.063601</v>
+        <v>5.769717</v>
       </c>
       <c r="O2">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="P2">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="Q2">
-        <v>1.413189198744889</v>
+        <v>2.216079704175667</v>
       </c>
       <c r="R2">
-        <v>12.718702788704</v>
+        <v>19.944717337581</v>
       </c>
       <c r="S2">
-        <v>0.06429494814843201</v>
+        <v>0.09198777543439385</v>
       </c>
       <c r="T2">
-        <v>0.06429494814843201</v>
+        <v>0.09198777543439385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3514346666666666</v>
+        <v>1.152264333333333</v>
       </c>
       <c r="H3">
-        <v>1.054304</v>
+        <v>3.456793</v>
       </c>
       <c r="I3">
-        <v>0.164942595720082</v>
+        <v>0.3930660006090215</v>
       </c>
       <c r="J3">
-        <v>0.1649425957200821</v>
+        <v>0.3930660006090216</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>10.688986</v>
       </c>
       <c r="O3">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612247</v>
       </c>
       <c r="P3">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612246</v>
       </c>
       <c r="Q3">
-        <v>1.252160077304889</v>
+        <v>4.105512442433111</v>
       </c>
       <c r="R3">
-        <v>11.269440695744</v>
+        <v>36.949611981898</v>
       </c>
       <c r="S3">
-        <v>0.05696871113602943</v>
+        <v>0.1704166848719582</v>
       </c>
       <c r="T3">
-        <v>0.05696871113602944</v>
+        <v>0.1704166848719582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3514346666666666</v>
+        <v>1.152264333333333</v>
       </c>
       <c r="H4">
-        <v>1.054304</v>
+        <v>3.456793</v>
       </c>
       <c r="I4">
-        <v>0.164942595720082</v>
+        <v>0.3930660006090215</v>
       </c>
       <c r="J4">
-        <v>0.1649425957200821</v>
+        <v>0.3930660006090216</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>8.195437999999999</v>
       </c>
       <c r="O4">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="P4">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="Q4">
-        <v>0.9600536739057776</v>
+        <v>3.147770301148222</v>
       </c>
       <c r="R4">
-        <v>8.640483065151999</v>
+        <v>28.329932710334</v>
       </c>
       <c r="S4">
-        <v>0.04367893643562062</v>
+        <v>0.1306615403026696</v>
       </c>
       <c r="T4">
-        <v>0.04367893643562062</v>
+        <v>0.1306615403026696</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.187895</v>
       </c>
       <c r="I5">
-        <v>0.6551832032346963</v>
+        <v>0.4761983545501621</v>
       </c>
       <c r="J5">
-        <v>0.6551832032346963</v>
+        <v>0.476198354550162</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.021200333333333</v>
+        <v>1.923239</v>
       </c>
       <c r="N5">
-        <v>12.063601</v>
+        <v>5.769717</v>
       </c>
       <c r="O5">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="P5">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="Q5">
-        <v>5.613454923321666</v>
+        <v>2.684774330635</v>
       </c>
       <c r="R5">
-        <v>50.521094309895</v>
+        <v>24.162968975715</v>
       </c>
       <c r="S5">
-        <v>0.2553917009478079</v>
+        <v>0.1114429312958053</v>
       </c>
       <c r="T5">
-        <v>0.2553917009478079</v>
+        <v>0.1114429312958053</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.187895</v>
       </c>
       <c r="I6">
-        <v>0.6551832032346963</v>
+        <v>0.4761983545501621</v>
       </c>
       <c r="J6">
-        <v>0.6551832032346963</v>
+        <v>0.476198354550162</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>10.688986</v>
       </c>
       <c r="O6">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612247</v>
       </c>
       <c r="P6">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612246</v>
       </c>
       <c r="Q6">
         <v>4.973816780496667</v>
@@ -818,10 +818,10 @@
         <v>44.76435102447</v>
       </c>
       <c r="S6">
-        <v>0.226290501148646</v>
+        <v>0.206459334560053</v>
       </c>
       <c r="T6">
-        <v>0.226290501148646</v>
+        <v>0.2064593345600529</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.187895</v>
       </c>
       <c r="I7">
-        <v>0.6551832032346963</v>
+        <v>0.4761983545501621</v>
       </c>
       <c r="J7">
-        <v>0.6551832032346963</v>
+        <v>0.476198354550162</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>8.195437999999999</v>
       </c>
       <c r="O7">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="P7">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="Q7">
         <v>3.813514869223333</v>
@@ -880,10 +880,10 @@
         <v>34.32163382301</v>
       </c>
       <c r="S7">
-        <v>0.1735010011382424</v>
+        <v>0.1582960886943038</v>
       </c>
       <c r="T7">
-        <v>0.1735010011382424</v>
+        <v>0.1582960886943038</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.149746</v>
       </c>
       <c r="I8">
-        <v>0.1798742010452218</v>
+        <v>0.1307356448408163</v>
       </c>
       <c r="J8">
-        <v>0.1798742010452218</v>
+        <v>0.1307356448408163</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.021200333333333</v>
+        <v>1.923239</v>
       </c>
       <c r="N8">
-        <v>12.063601</v>
+        <v>5.769717</v>
       </c>
       <c r="O8">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="P8">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="Q8">
-        <v>1.541119666149555</v>
+        <v>0.7370787824313332</v>
       </c>
       <c r="R8">
-        <v>13.870076995346</v>
+        <v>6.633709041882</v>
       </c>
       <c r="S8">
-        <v>0.07011531726510296</v>
+        <v>0.0305955771301876</v>
       </c>
       <c r="T8">
-        <v>0.07011531726510296</v>
+        <v>0.0305955771301876</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.149746</v>
       </c>
       <c r="I9">
-        <v>0.1798742010452218</v>
+        <v>0.1307356448408163</v>
       </c>
       <c r="J9">
-        <v>0.1798742010452218</v>
+        <v>0.1307356448408163</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>10.688986</v>
       </c>
       <c r="O9">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612247</v>
       </c>
       <c r="P9">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612246</v>
       </c>
       <c r="Q9">
         <v>1.365513210839555</v>
@@ -1004,10 +1004,10 @@
         <v>12.289618897556</v>
       </c>
       <c r="S9">
-        <v>0.06212586479213329</v>
+        <v>0.05668141012921352</v>
       </c>
       <c r="T9">
-        <v>0.06212586479213329</v>
+        <v>0.05668141012921351</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.149746</v>
       </c>
       <c r="I10">
-        <v>0.1798742010452218</v>
+        <v>0.1307356448408163</v>
       </c>
       <c r="J10">
-        <v>0.1798742010452218</v>
+        <v>0.1307356448408163</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>8.195437999999999</v>
       </c>
       <c r="O10">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="P10">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="Q10">
         <v>1.046963562083111</v>
@@ -1066,10 +1066,10 @@
         <v>9.422672058747999</v>
       </c>
       <c r="S10">
-        <v>0.04763301898798551</v>
+        <v>0.04345865758141524</v>
       </c>
       <c r="T10">
-        <v>0.04763301898798551</v>
+        <v>0.04345865758141523</v>
       </c>
     </row>
   </sheetData>
